--- a/Pigeon Combat System v0.2.xlsx
+++ b/Pigeon Combat System v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1411170\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1411170\Desktop\BirdyRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>Pigeon Game Thingy</t>
   </si>
@@ -377,9 +377,6 @@
     <t>None, Shiny</t>
   </si>
   <si>
-    <t>If QTE success, Player gets 5 Bronze coins, shiny</t>
-  </si>
-  <si>
     <t>Wedding ring</t>
   </si>
   <si>
@@ -471,6 +468,21 @@
   </si>
   <si>
     <t>1.5 X Damage</t>
+  </si>
+  <si>
+    <t>Status Effects</t>
+  </si>
+  <si>
+    <t>They tag a target  with said status effect</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Deals 1.5X dmg on the Jackdaw enemy</t>
+  </si>
+  <si>
+    <t>If QTE success, Player gets 5 Bronze coins, Shiny</t>
   </si>
 </sst>
 </file>
@@ -599,10 +611,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -614,24 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O53"/>
+  <dimension ref="B3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,66 +939,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -1002,20 +1014,20 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1035,25 +1047,25 @@
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="3"/>
       <c r="L11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -1067,93 +1079,93 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
-      <c r="L14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="L14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="L15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
-      <c r="L16" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>102</v>
+      <c r="L16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
@@ -1162,12 +1174,12 @@
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="N20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,12 +1192,12 @@
       <c r="D21" s="10">
         <v>100</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="N21" s="15" t="s">
-        <v>93</v>
+      <c r="F21" s="24"/>
+      <c r="N21" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1198,11 +1210,11 @@
       <c r="D22" s="10">
         <v>50</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="N22" s="15"/>
+      <c r="F22" s="24"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -1214,11 +1226,11 @@
       <c r="D23" s="10">
         <v>100</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="N23" s="15"/>
+      <c r="F23" s="24"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
@@ -1251,11 +1263,11 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="10">
         <v>25</v>
       </c>
@@ -1268,24 +1280,24 @@
       <c r="H27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="10">
         <v>10</v>
       </c>
@@ -1298,24 +1310,24 @@
       <c r="H28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
       <c r="O28" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="10">
         <v>25</v>
       </c>
@@ -1328,24 +1340,24 @@
       <c r="H29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="I29" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
       <c r="O29" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10">
         <v>25</v>
       </c>
@@ -1358,24 +1370,24 @@
       <c r="H30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
       <c r="O30" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="10">
         <v>25</v>
       </c>
@@ -1388,24 +1400,24 @@
       <c r="H31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="10">
         <v>50</v>
       </c>
@@ -1418,24 +1430,24 @@
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
       <c r="O32" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10">
         <v>25</v>
       </c>
@@ -1448,24 +1460,24 @@
       <c r="H33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
       <c r="O33" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="10">
         <v>25</v>
       </c>
@@ -1478,24 +1490,24 @@
       <c r="H34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="I34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="10">
         <v>50</v>
       </c>
@@ -1508,24 +1520,24 @@
       <c r="H35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
       <c r="O35" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="10">
         <v>25</v>
       </c>
@@ -1538,24 +1550,24 @@
       <c r="H36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
       <c r="O36" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10">
         <v>50</v>
       </c>
@@ -1568,24 +1580,24 @@
       <c r="H37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
       <c r="O37" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="10">
         <v>25</v>
       </c>
@@ -1598,24 +1610,24 @@
       <c r="H38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="I38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
       <c r="O38" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="10">
         <v>75</v>
       </c>
@@ -1628,24 +1640,24 @@
       <c r="H39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
+      <c r="I39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
       <c r="O39" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="10">
         <v>35</v>
       </c>
@@ -1658,24 +1670,24 @@
       <c r="H40" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
       <c r="O40" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="10">
         <v>50</v>
       </c>
@@ -1688,24 +1700,24 @@
       <c r="H41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
       <c r="O41" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="10">
         <v>35</v>
       </c>
@@ -1718,24 +1730,24 @@
       <c r="H42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="10">
         <v>25</v>
       </c>
@@ -1748,24 +1760,24 @@
       <c r="H43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="10">
         <v>25</v>
       </c>
@@ -1778,24 +1790,24 @@
       <c r="H44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="10">
         <v>75</v>
       </c>
@@ -1808,24 +1820,24 @@
       <c r="H45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
       <c r="O45" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="B46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="10">
         <v>25</v>
       </c>
@@ -1838,24 +1850,24 @@
       <c r="H46" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="I46" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
       <c r="O46" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="10">
         <v>25</v>
       </c>
@@ -1868,40 +1880,40 @@
       <c r="H47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
+      <c r="I47" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
       <c r="O47" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="14"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="10">
         <v>75</v>
       </c>
@@ -1914,26 +1926,26 @@
       <c r="H49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
+      <c r="I49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
       <c r="O49" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="F50" s="10">
         <v>2</v>
@@ -1944,24 +1956,24 @@
       <c r="H50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
+      <c r="I50" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
       <c r="O50" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="10">
         <v>75</v>
       </c>
@@ -1974,24 +1986,24 @@
       <c r="H51" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
+      <c r="I51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
       <c r="O51" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="B52" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="10">
         <v>75</v>
       </c>
@@ -2004,26 +2016,26 @@
       <c r="H52" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
       <c r="O52" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="10">
         <v>2</v>
@@ -2034,39 +2046,254 @@
       <c r="H53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I53" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
+      <c r="I53" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
       <c r="O53" s="12" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="C3:O6"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B9:M9"/>
+  <mergeCells count="97">
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I39:N39"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="E20:F20"/>
@@ -2082,38 +2309,26 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C3:O6"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B9:M9"/>
     <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="I48:N48"/>
     <mergeCell ref="N21:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
